--- a/03スプリントバックログ/Scrum5_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum5_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AEFE7D-7045-DD42-9A3B-E1767F1BE28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CFFA75-C73E-480D-B5CC-0A44A265F7AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -33,10 +33,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -611,6 +611,20 @@
   </si>
   <si>
     <t>初期表示は自分が投稿した課題の一覧。検索も可能。課題を検索して投稿内容を一覧表示。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状況
+[実施・完了]</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1019,17 +1033,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC1645D-7E6A-440C-86A0-9464E949A73A}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1059,7 +1073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1074,7 +1088,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1089,7 +1103,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1104,7 +1118,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1119,7 +1133,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1142,21 +1156,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CFFC70-6717-8144-9361-87526229515F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1165,7 +1181,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1178,8 +1194,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -1188,8 +1207,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
@@ -1198,8 +1218,9 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
@@ -1208,8 +1229,9 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1218,42 +1240,49 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1264,21 +1293,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B7E486-22CA-8446-8332-E82A6BC61ED7}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1318,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1300,8 +1331,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -1310,8 +1344,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
@@ -1320,54 +1355,63 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1378,21 +1422,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CDC5EB-53F8-44DC-8D5E-E935E308C3EE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1401,7 +1447,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1414,8 +1460,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1424,8 +1473,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1434,8 +1484,9 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1444,8 +1495,9 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1454,8 +1506,9 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1464,36 +1517,42 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1504,21 +1563,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370318D7-38E6-4CC1-8BC3-1D867FE3E27E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1527,7 +1588,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1540,8 +1601,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1550,8 +1614,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -1560,8 +1625,9 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1570,8 +1636,9 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1580,8 +1647,9 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1590,8 +1658,9 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1600,8 +1669,9 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1610,18 +1680,21 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1632,21 +1705,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5340EB-BD56-B447-87CE-47F3CE0C0C99}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1730,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1668,8 +1743,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -1678,8 +1756,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1688,48 +1767,56 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1740,21 +1827,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5EB962-51C9-7644-9674-0BCBA0DD00B0}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1763,7 +1852,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1776,8 +1865,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1786,8 +1878,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -1796,54 +1889,63 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1854,21 +1956,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE19C98-61D5-2943-9D0A-E3F80B8CF6AA}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1877,7 +1981,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1890,8 +1994,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1900,60 +2007,70 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1964,21 +2081,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4D8F7-60F7-E14B-8769-FFE3E4BF07CD}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1987,7 +2106,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2000,8 +2119,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2010,8 +2132,9 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -2020,8 +2143,9 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -2030,48 +2154,56 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2082,21 +2214,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7081D8-6A41-6A46-8FD4-34845D556688}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2239,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2118,8 +2252,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -2128,60 +2265,70 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2192,21 +2339,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B86E21-7CB6-A14F-9583-4028C99D2874}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2215,7 +2364,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2228,8 +2377,11 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
@@ -2238,60 +2390,70 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/03スプリントバックログ/Scrum5_スプリントバックログ.xlsx
+++ b/03スプリントバックログ/Scrum5_スプリントバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CFFA75-C73E-480D-B5CC-0A44A265F7AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69DC0F1-6FB5-4395-A30E-78481C500FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -33,10 +33,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -624,6 +624,20 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨネダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1034,16 +1048,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1073,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1088,7 +1102,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1103,7 +1117,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1118,7 +1132,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1133,7 +1147,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1162,17 +1176,17 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1195,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -1209,7 +1223,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
@@ -1220,7 +1234,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>45</v>
       </c>
@@ -1231,7 +1245,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1242,42 +1256,42 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1299,17 +1313,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1318,7 +1332,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -1346,7 +1360,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>44</v>
       </c>
@@ -1357,56 +1371,56 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1425,20 +1439,20 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1461,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1464,18 +1478,24 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -1486,7 +1506,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1497,7 +1517,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1508,7 +1528,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1519,35 +1539,35 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1569,17 +1589,17 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1588,7 +1608,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1605,7 +1625,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -1616,7 +1636,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -1627,7 +1647,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1638,7 +1658,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1649,7 +1669,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1680,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1671,7 +1691,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -1682,14 +1702,14 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1711,17 +1731,17 @@
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1750,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -1758,7 +1778,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1769,49 +1789,49 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1833,17 +1853,17 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1852,7 +1872,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1869,7 +1889,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1880,7 +1900,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -1891,56 +1911,56 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1962,17 +1982,17 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2001,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2018,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -2009,63 +2029,63 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2087,17 +2107,17 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2126,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2123,7 +2143,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -2134,7 +2154,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -2145,7 +2165,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -2156,49 +2176,49 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2220,17 +2240,17 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2239,7 +2259,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2256,7 +2276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -2267,63 +2287,63 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2345,17 +2365,17 @@
       <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="64.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:5" ht="39.9" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2364,7 +2384,7 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="39.9" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2381,7 +2401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="39.9" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>40</v>
       </c>
@@ -2392,63 +2412,63 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="39.9" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="39.9" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="39.9" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="39.9" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="39.9" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="39.9" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="39.9" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="39.9" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="39.9" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
